--- a/Code/Results/Cases/Case_0_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.898097738550291</v>
+        <v>9.454274208217237</v>
       </c>
       <c r="D2">
-        <v>5.616109908914892</v>
+        <v>8.067803511874837</v>
       </c>
       <c r="E2">
-        <v>7.731596457028091</v>
+        <v>13.1591483127652</v>
       </c>
       <c r="F2">
-        <v>22.92968867372796</v>
+        <v>37.88371238076034</v>
       </c>
       <c r="G2">
-        <v>2.113353192933375</v>
+        <v>3.695655277174606</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.40775828564688</v>
+        <v>29.47010556688408</v>
       </c>
       <c r="J2">
-        <v>5.79120042376192</v>
+        <v>10.33558898771845</v>
       </c>
       <c r="K2">
-        <v>20.50274679993369</v>
+        <v>16.84455902426148</v>
       </c>
       <c r="L2">
-        <v>5.779139077800028</v>
+        <v>10.30065057450186</v>
       </c>
       <c r="M2">
-        <v>16.07631687046334</v>
+        <v>18.81103664535916</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.9743162530527</v>
+        <v>29.23913613188876</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.65114432646409</v>
+        <v>9.422657315158791</v>
       </c>
       <c r="D3">
-        <v>5.426452046274028</v>
+        <v>8.041219994027994</v>
       </c>
       <c r="E3">
-        <v>7.705425341443782</v>
+        <v>13.18111054357068</v>
       </c>
       <c r="F3">
-        <v>22.99732383997909</v>
+        <v>38.05170069082426</v>
       </c>
       <c r="G3">
-        <v>2.119054874910051</v>
+        <v>3.69780740067419</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.52604934684868</v>
+        <v>29.60235104795779</v>
       </c>
       <c r="J3">
-        <v>5.853608997356948</v>
+        <v>10.36104859610437</v>
       </c>
       <c r="K3">
-        <v>19.15506698205563</v>
+        <v>16.37389424061714</v>
       </c>
       <c r="L3">
-        <v>5.828063821504037</v>
+        <v>10.32311689373139</v>
       </c>
       <c r="M3">
-        <v>15.24034265910657</v>
+        <v>18.62133038279577</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.18376338877279</v>
+        <v>29.38924300627838</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.49728230972323</v>
+        <v>9.404468092232813</v>
       </c>
       <c r="D4">
-        <v>5.30799162721152</v>
+        <v>8.025599766373826</v>
       </c>
       <c r="E4">
-        <v>7.692505334321551</v>
+        <v>13.19612939360933</v>
       </c>
       <c r="F4">
-        <v>23.06428169577907</v>
+        <v>38.16391510312033</v>
       </c>
       <c r="G4">
-        <v>2.122660728540938</v>
+        <v>3.699198436834952</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.61624143823992</v>
+        <v>29.69001307400459</v>
       </c>
       <c r="J4">
-        <v>5.893396992911446</v>
+        <v>10.3775509716988</v>
       </c>
       <c r="K4">
-        <v>18.27881548380698</v>
+        <v>16.07847783679615</v>
       </c>
       <c r="L4">
-        <v>5.85955517554506</v>
+        <v>10.3377329332411</v>
       </c>
       <c r="M4">
-        <v>14.70604787601842</v>
+        <v>18.50534300632922</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.33026276179284</v>
+        <v>29.48799108588045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.43410895940483</v>
+        <v>9.397368446766412</v>
       </c>
       <c r="D5">
-        <v>5.259275604476784</v>
+        <v>8.019414562140458</v>
       </c>
       <c r="E5">
-        <v>7.688021083141463</v>
+        <v>13.20263586212579</v>
       </c>
       <c r="F5">
-        <v>23.0976766203555</v>
+        <v>38.21191876232358</v>
       </c>
       <c r="G5">
-        <v>2.124157224273975</v>
+        <v>3.69978285817632</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.65720973656933</v>
+        <v>29.72735883232113</v>
       </c>
       <c r="J5">
-        <v>5.909982944888437</v>
+        <v>10.38449518328983</v>
       </c>
       <c r="K5">
-        <v>17.90942418940619</v>
+        <v>15.95663541290967</v>
       </c>
       <c r="L5">
-        <v>5.87275319653571</v>
+        <v>10.34389620369597</v>
       </c>
       <c r="M5">
-        <v>14.4832351348785</v>
+        <v>18.45824036454642</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.39423726368248</v>
+        <v>29.52988488610177</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.42359321314551</v>
+        <v>9.396208574761067</v>
       </c>
       <c r="D6">
-        <v>5.251161575619888</v>
+        <v>8.018398497597602</v>
       </c>
       <c r="E6">
-        <v>7.687323296311045</v>
+        <v>13.2037395922265</v>
       </c>
       <c r="F6">
-        <v>23.10358247944397</v>
+        <v>38.22002701133964</v>
       </c>
       <c r="G6">
-        <v>2.124407371139079</v>
+        <v>3.699880963274019</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.66426125153358</v>
+        <v>29.73365801022145</v>
       </c>
       <c r="J6">
-        <v>5.912759576872401</v>
+        <v>10.38566152997483</v>
       </c>
       <c r="K6">
-        <v>17.84734219432044</v>
+        <v>15.93632035418446</v>
       </c>
       <c r="L6">
-        <v>5.874966769925095</v>
+        <v>10.34493213437554</v>
       </c>
       <c r="M6">
-        <v>14.44593681363318</v>
+        <v>18.45042999974259</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.40511202589703</v>
+        <v>29.53694111185797</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.496432126172909</v>
+        <v>9.404371071902997</v>
       </c>
       <c r="D7">
-        <v>5.307336329917907</v>
+        <v>8.025515616406407</v>
       </c>
       <c r="E7">
-        <v>7.692441711979775</v>
+        <v>13.19621557797813</v>
       </c>
       <c r="F7">
-        <v>23.06470771207036</v>
+        <v>38.16455329111349</v>
       </c>
       <c r="G7">
-        <v>2.122680800279852</v>
+        <v>3.699206247361001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.61677714925855</v>
+        <v>29.6905101645315</v>
       </c>
       <c r="J7">
-        <v>5.893619167016255</v>
+        <v>10.37764373482631</v>
       </c>
       <c r="K7">
-        <v>18.27388365161086</v>
+        <v>16.07684031312841</v>
       </c>
       <c r="L7">
-        <v>5.859731690436667</v>
+        <v>10.33781521397947</v>
       </c>
       <c r="M7">
-        <v>14.7030632362721</v>
+        <v>18.50470705150168</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.33110852420316</v>
+        <v>29.4885493892521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.813461462032415</v>
+        <v>9.443121755010536</v>
       </c>
       <c r="D8">
-        <v>5.551168925147606</v>
+        <v>8.05849398288356</v>
       </c>
       <c r="E8">
-        <v>7.721912511016149</v>
+        <v>13.16640278800813</v>
       </c>
       <c r="F8">
-        <v>22.94755941214602</v>
+        <v>37.93974946217467</v>
       </c>
       <c r="G8">
-        <v>2.1152977595274</v>
+        <v>3.696382912378625</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.44477717712774</v>
+        <v>29.51436105366991</v>
       </c>
       <c r="J8">
-        <v>5.812415635223147</v>
+        <v>10.34418722222809</v>
       </c>
       <c r="K8">
-        <v>20.04815801541687</v>
+        <v>16.68369906026793</v>
       </c>
       <c r="L8">
-        <v>5.79570711594907</v>
+        <v>10.30822673978236</v>
       </c>
       <c r="M8">
-        <v>15.79253904348937</v>
+        <v>18.74554717403504</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.04267889340942</v>
+        <v>29.28952576433245</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.414029890989216</v>
+        <v>9.52859420960603</v>
       </c>
       <c r="D9">
-        <v>6.010920272872166</v>
+        <v>8.12857255527507</v>
       </c>
       <c r="E9">
-        <v>7.805168485766339</v>
+        <v>13.12009155820867</v>
       </c>
       <c r="F9">
-        <v>22.93235218524127</v>
+        <v>37.5710925070282</v>
       </c>
       <c r="G9">
-        <v>2.101620254323175</v>
+        <v>3.691396261688709</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.256132582256</v>
+        <v>29.2203169326485</v>
       </c>
       <c r="J9">
-        <v>5.664710000747722</v>
+        <v>10.28545660038914</v>
       </c>
       <c r="K9">
-        <v>23.14305586266529</v>
+        <v>17.81637344599734</v>
       </c>
       <c r="L9">
-        <v>5.681672264835277</v>
+        <v>10.25669992510703</v>
       </c>
       <c r="M9">
-        <v>17.7555364820969</v>
+        <v>19.22001890188118</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.6298972093218</v>
+        <v>28.9515509856327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.838442647790622</v>
+        <v>9.596851976491399</v>
       </c>
       <c r="D10">
-        <v>6.334627926501401</v>
+        <v>8.183130545843053</v>
       </c>
       <c r="E10">
-        <v>7.882488172806291</v>
+        <v>13.09344770896012</v>
       </c>
       <c r="F10">
-        <v>23.06920732740952</v>
+        <v>37.34454938378286</v>
       </c>
       <c r="G10">
-        <v>2.092011332357989</v>
+        <v>3.688064253536246</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.22126522433883</v>
+        <v>29.03575052801522</v>
       </c>
       <c r="J10">
-        <v>5.563055871158162</v>
+        <v>10.24646331118232</v>
       </c>
       <c r="K10">
-        <v>25.18642970441444</v>
+        <v>18.60582251027675</v>
       </c>
       <c r="L10">
-        <v>5.604922955591371</v>
+        <v>10.22277113804436</v>
       </c>
       <c r="M10">
-        <v>19.0851674076534</v>
+        <v>19.56763627584622</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.4356679361518</v>
+        <v>28.73524942512333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.027207188430259</v>
+        <v>9.629016828984598</v>
       </c>
       <c r="D11">
-        <v>6.478354477365662</v>
+        <v>8.208566655188486</v>
       </c>
       <c r="E11">
-        <v>7.921297100992827</v>
+        <v>13.08292333748741</v>
       </c>
       <c r="F11">
-        <v>23.16720455869725</v>
+        <v>37.25117481068214</v>
       </c>
       <c r="G11">
-        <v>2.087724105548812</v>
+        <v>3.686619702976558</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.2308243646577</v>
+        <v>28.95865051907206</v>
       </c>
       <c r="J11">
-        <v>5.518267167143595</v>
+        <v>10.22961894794655</v>
       </c>
       <c r="K11">
-        <v>26.06692029815509</v>
+        <v>18.95427205052321</v>
       </c>
       <c r="L11">
-        <v>5.571541186341254</v>
+        <v>10.2081821544448</v>
       </c>
       <c r="M11">
-        <v>19.66470729243622</v>
+        <v>19.72507865388893</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.37469554764099</v>
+        <v>28.64382569919702</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.098024784709134</v>
+        <v>9.641350450524071</v>
       </c>
       <c r="D12">
-        <v>6.532239987440603</v>
+        <v>8.218282933249274</v>
       </c>
       <c r="E12">
-        <v>7.936525667333738</v>
+        <v>13.07916699449442</v>
       </c>
       <c r="F12">
-        <v>23.20973770947563</v>
+        <v>37.21721374394859</v>
       </c>
       <c r="G12">
-        <v>2.086111704128002</v>
+        <v>3.686082870034479</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.23834138225659</v>
+        <v>28.93044395071665</v>
       </c>
       <c r="J12">
-        <v>5.501513462481915</v>
+        <v>10.22336838274056</v>
       </c>
       <c r="K12">
-        <v>26.39336760772322</v>
+        <v>19.08458253729797</v>
       </c>
       <c r="L12">
-        <v>5.559121658954292</v>
+        <v>10.20277873774287</v>
       </c>
       <c r="M12">
-        <v>19.88047700515045</v>
+        <v>19.78455855707361</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.35586906427907</v>
+        <v>28.6102111587948</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.08280308221145</v>
+        <v>9.638687466933343</v>
       </c>
       <c r="D13">
-        <v>6.520659290218517</v>
+        <v>8.216186689633211</v>
       </c>
       <c r="E13">
-        <v>7.933222089128915</v>
+        <v>13.0799658132416</v>
       </c>
       <c r="F13">
-        <v>23.20033179113715</v>
+        <v>37.22446560671094</v>
       </c>
       <c r="G13">
-        <v>2.086458487419306</v>
+        <v>3.6861980343514</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.23654526989191</v>
+        <v>28.9364746815981</v>
       </c>
       <c r="J13">
-        <v>5.505112510147087</v>
+        <v>10.22470886769629</v>
       </c>
       <c r="K13">
-        <v>26.32337027948932</v>
+        <v>19.05659233059705</v>
       </c>
       <c r="L13">
-        <v>5.561786557152471</v>
+        <v>10.20393708073787</v>
       </c>
       <c r="M13">
-        <v>19.83417181044449</v>
+        <v>19.77175536888937</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.35972881226806</v>
+        <v>28.6174058777288</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.033046918773049</v>
+        <v>9.630028486437435</v>
       </c>
       <c r="D14">
-        <v>6.482798675094122</v>
+        <v>8.2093643589794</v>
       </c>
       <c r="E14">
-        <v>7.922539238058558</v>
+        <v>13.08260971419259</v>
       </c>
       <c r="F14">
-        <v>23.17059349360649</v>
+        <v>37.24835276555687</v>
       </c>
       <c r="G14">
-        <v>2.087591236204807</v>
+        <v>3.686575333535543</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.23136330046151</v>
+        <v>28.95631009854818</v>
       </c>
       <c r="J14">
-        <v>5.516884697840364</v>
+        <v>10.22910214717977</v>
       </c>
       <c r="K14">
-        <v>26.09391664863257</v>
+        <v>18.96502619977446</v>
       </c>
       <c r="L14">
-        <v>5.57051497908682</v>
+        <v>10.20773518734996</v>
       </c>
       <c r="M14">
-        <v>19.68253295365095</v>
+        <v>19.72997514041783</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.37305935276821</v>
+        <v>28.64104003907791</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.002482241998235</v>
+        <v>9.624744397171362</v>
       </c>
       <c r="D15">
-        <v>6.459536664687611</v>
+        <v>8.205196308122138</v>
       </c>
       <c r="E15">
-        <v>7.916065310350756</v>
+        <v>13.08425898814001</v>
       </c>
       <c r="F15">
-        <v>23.15309252757516</v>
+        <v>37.26316655131895</v>
       </c>
       <c r="G15">
-        <v>2.088286489714151</v>
+        <v>3.686807765321206</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.22870391629921</v>
+        <v>28.96858882097379</v>
       </c>
       <c r="J15">
-        <v>5.524122368621034</v>
+        <v>10.23180981592488</v>
       </c>
       <c r="K15">
-        <v>25.95246366785604</v>
+        <v>18.9087228195656</v>
       </c>
       <c r="L15">
-        <v>5.57589026443287</v>
+        <v>10.21007739671464</v>
       </c>
       <c r="M15">
-        <v>19.58916816193571</v>
+        <v>19.70436409922041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.38178963503336</v>
+        <v>28.65564769799041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.826015853372027</v>
+        <v>9.5947717765194</v>
       </c>
       <c r="D16">
-        <v>6.325161079618566</v>
+        <v>8.181480268654155</v>
       </c>
       <c r="E16">
-        <v>7.880025907410528</v>
+        <v>13.09416757566902</v>
       </c>
       <c r="F16">
-        <v>23.06354668921474</v>
+        <v>37.35084693102036</v>
       </c>
       <c r="G16">
-        <v>2.092293118405157</v>
+        <v>3.688160086604072</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.22117267211788</v>
+        <v>29.0409274994415</v>
       </c>
       <c r="J16">
-        <v>5.566011980715254</v>
+        <v>10.24758207342579</v>
       </c>
       <c r="K16">
-        <v>25.12790712015593</v>
+        <v>18.5828265142724</v>
       </c>
       <c r="L16">
-        <v>5.607135449059125</v>
+        <v>10.22374153517012</v>
       </c>
       <c r="M16">
-        <v>19.04677906327334</v>
+        <v>19.55732964599438</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.44023112495668</v>
+        <v>28.74136474354432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.716623018322605</v>
+        <v>9.576665172996938</v>
       </c>
       <c r="D17">
-        <v>6.241796681796838</v>
+        <v>8.167086134972681</v>
       </c>
       <c r="E17">
-        <v>7.858855030373229</v>
+        <v>13.10065461078294</v>
       </c>
       <c r="F17">
-        <v>23.0179725096387</v>
+        <v>37.40711965454124</v>
       </c>
       <c r="G17">
-        <v>2.094771866934278</v>
+        <v>3.689007890681036</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.22323482904217</v>
+        <v>29.08706415605685</v>
       </c>
       <c r="J17">
-        <v>5.592080683098379</v>
+        <v>10.25748642254398</v>
       </c>
       <c r="K17">
-        <v>24.60955948205988</v>
+        <v>18.38008773310591</v>
       </c>
       <c r="L17">
-        <v>5.626696430949117</v>
+        <v>10.23234024387354</v>
       </c>
       <c r="M17">
-        <v>18.70751587065774</v>
+        <v>19.46692265296042</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.4833236864107</v>
+        <v>28.79573737891632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.653300290603127</v>
+        <v>9.566356008714484</v>
       </c>
       <c r="D18">
-        <v>6.193517068197845</v>
+        <v>8.158865405778958</v>
       </c>
       <c r="E18">
-        <v>7.847019759660577</v>
+        <v>13.10453604115111</v>
       </c>
       <c r="F18">
-        <v>22.99510711060395</v>
+        <v>37.44039712252535</v>
       </c>
       <c r="G18">
-        <v>2.096205539664273</v>
+        <v>3.689502229552263</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.22679903144423</v>
+        <v>29.11424626981393</v>
       </c>
       <c r="J18">
-        <v>5.607211725016628</v>
+        <v>10.26326730847327</v>
       </c>
       <c r="K18">
-        <v>24.30679782165679</v>
+        <v>18.26247856686475</v>
       </c>
       <c r="L18">
-        <v>5.638091492880013</v>
+        <v>10.23736559266427</v>
       </c>
       <c r="M18">
-        <v>18.50999943414292</v>
+        <v>19.4148603487919</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.51066658214128</v>
+        <v>28.82766722583505</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.63179260333308</v>
+        <v>9.562883784932946</v>
       </c>
       <c r="D19">
-        <v>6.177114735338467</v>
+        <v>8.15609217628953</v>
       </c>
       <c r="E19">
-        <v>7.843070924135503</v>
+        <v>13.1058760488355</v>
       </c>
       <c r="F19">
-        <v>22.98793143197043</v>
+        <v>37.45182057087939</v>
       </c>
       <c r="G19">
-        <v>2.096692353145566</v>
+        <v>3.689670757245889</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.22840690778864</v>
+        <v>29.12356044406799</v>
       </c>
       <c r="J19">
-        <v>5.612358440889452</v>
+        <v>10.26523908836572</v>
       </c>
       <c r="K19">
-        <v>24.20349182209766</v>
+        <v>18.22248987778324</v>
       </c>
       <c r="L19">
-        <v>5.641974384657331</v>
+        <v>10.23908077445575</v>
       </c>
       <c r="M19">
-        <v>18.44271659457325</v>
+        <v>19.39722345202072</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.5203539289852</v>
+        <v>28.83859072866342</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.728310115998319</v>
+        <v>9.578581804220738</v>
       </c>
       <c r="D20">
-        <v>6.250705438919065</v>
+        <v>8.168612404378687</v>
       </c>
       <c r="E20">
-        <v>7.86107327581877</v>
+        <v>13.09994850709839</v>
       </c>
       <c r="F20">
-        <v>23.02247539969141</v>
+        <v>37.40103501195801</v>
       </c>
       <c r="G20">
-        <v>2.094507182817456</v>
+        <v>3.688916946980964</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.22276743707268</v>
+        <v>29.08208599828406</v>
       </c>
       <c r="J20">
-        <v>5.589291462048418</v>
+        <v>10.25642338048131</v>
       </c>
       <c r="K20">
-        <v>24.66521626168124</v>
+        <v>18.40177382602572</v>
       </c>
       <c r="L20">
-        <v>5.624599209619278</v>
+        <v>10.23141666174281</v>
       </c>
       <c r="M20">
-        <v>18.74387787948551</v>
+        <v>19.47655340778675</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.47846943708799</v>
+        <v>28.78988138941521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.047679832438721</v>
+        <v>9.632567727712171</v>
       </c>
       <c r="D21">
-        <v>6.493934163627352</v>
+        <v>8.211365995590695</v>
       </c>
       <c r="E21">
-        <v>7.925662523103247</v>
+        <v>13.08182692530965</v>
       </c>
       <c r="F21">
-        <v>23.17917893717564</v>
+        <v>37.24129854518725</v>
       </c>
       <c r="G21">
-        <v>2.087258227998792</v>
+        <v>3.686464235551158</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.23277767031033</v>
+        <v>28.95045707584168</v>
       </c>
       <c r="J21">
-        <v>5.513421326054471</v>
+        <v>10.22780826384648</v>
       </c>
       <c r="K21">
-        <v>26.16150140734315</v>
+        <v>18.99196667895927</v>
       </c>
       <c r="L21">
-        <v>5.567945210032084</v>
+        <v>10.20661630792594</v>
       </c>
       <c r="M21">
-        <v>19.72717339119221</v>
+        <v>19.7422511303407</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.3690255204671</v>
+        <v>28.63407079637529</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.252524165669877</v>
+        <v>9.668742054904733</v>
       </c>
       <c r="D22">
-        <v>6.649735601262639</v>
+        <v>8.239796371320201</v>
       </c>
       <c r="E22">
-        <v>7.970983379775674</v>
+        <v>13.07131800702586</v>
       </c>
       <c r="F22">
-        <v>23.31333209146823</v>
+        <v>37.14505191763124</v>
       </c>
       <c r="G22">
-        <v>2.082584679112659</v>
+        <v>3.684920601111618</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.26214829481526</v>
+        <v>28.87019913279062</v>
       </c>
       <c r="J22">
-        <v>5.465040262887218</v>
+        <v>10.20985265279882</v>
       </c>
       <c r="K22">
-        <v>27.09879187409617</v>
+        <v>19.36809247900683</v>
       </c>
       <c r="L22">
-        <v>5.532209923424199</v>
+        <v>10.19111358639091</v>
       </c>
       <c r="M22">
-        <v>20.34829878642856</v>
+        <v>19.91506491906557</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.32250118053427</v>
+        <v>28.53810262832805</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.143562845858478</v>
+        <v>9.649355840184565</v>
       </c>
       <c r="D23">
-        <v>6.566880319037294</v>
+        <v>8.224579400929938</v>
       </c>
       <c r="E23">
-        <v>7.94650723668629</v>
+        <v>13.07680487260507</v>
       </c>
       <c r="F23">
-        <v>23.23873664244856</v>
+        <v>37.19567291868777</v>
       </c>
       <c r="G23">
-        <v>2.085073523941329</v>
+        <v>3.685739053691998</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.24430376363034</v>
+        <v>28.9125054197213</v>
       </c>
       <c r="J23">
-        <v>5.4907526649666</v>
+        <v>10.21936780615858</v>
       </c>
       <c r="K23">
-        <v>26.60223194490005</v>
+        <v>19.16825735648757</v>
       </c>
       <c r="L23">
-        <v>5.55116390155068</v>
+        <v>10.19932325304404</v>
       </c>
       <c r="M23">
-        <v>20.01877258868769</v>
+        <v>19.82292063646762</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.34493393323289</v>
+        <v>28.58878518361823</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.723027719155207</v>
+        <v>9.577714981511454</v>
       </c>
       <c r="D24">
-        <v>6.246678884623424</v>
+        <v>8.16792220741954</v>
       </c>
       <c r="E24">
-        <v>7.860069360755147</v>
+        <v>13.10026726323948</v>
       </c>
       <c r="F24">
-        <v>23.02042927447119</v>
+        <v>37.4037829962989</v>
       </c>
       <c r="G24">
-        <v>2.094626819623449</v>
+        <v>3.68895804105244</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.22297135435416</v>
+        <v>29.08433457542958</v>
       </c>
       <c r="J24">
-        <v>5.590552020810145</v>
+        <v>10.25690371155507</v>
       </c>
       <c r="K24">
-        <v>24.64006865352044</v>
+        <v>18.39197281191773</v>
       </c>
       <c r="L24">
-        <v>5.625546898762614</v>
+        <v>10.23183395827324</v>
       </c>
       <c r="M24">
-        <v>18.72744630333427</v>
+        <v>19.4721996086516</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.4806560676467</v>
+        <v>28.79252679451959</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.254262907046156</v>
+        <v>9.504488441658113</v>
       </c>
       <c r="D25">
-        <v>5.888833457089817</v>
+        <v>8.109058232292774</v>
       </c>
       <c r="E25">
-        <v>7.779852875437908</v>
+        <v>13.13132175389831</v>
       </c>
       <c r="F25">
-        <v>22.91170607903378</v>
+        <v>37.66306467809102</v>
       </c>
       <c r="G25">
-        <v>2.10523946405057</v>
+        <v>3.692686780561647</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.28991722545321</v>
+        <v>29.2943479837462</v>
       </c>
       <c r="J25">
-        <v>5.703450881351176</v>
+        <v>10.30061230991965</v>
       </c>
       <c r="K25">
-        <v>22.34657669375069</v>
+        <v>17.5169415381147</v>
       </c>
       <c r="L25">
-        <v>5.711288304973828</v>
+        <v>10.26994719113318</v>
       </c>
       <c r="M25">
-        <v>17.24388019757088</v>
+        <v>19.09166684294394</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.72362261813147</v>
+        <v>29.03736998718004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.454274208217237</v>
+        <v>6.898097738550126</v>
       </c>
       <c r="D2">
-        <v>8.067803511874837</v>
+        <v>5.616109908914773</v>
       </c>
       <c r="E2">
-        <v>13.1591483127652</v>
+        <v>7.731596457028041</v>
       </c>
       <c r="F2">
-        <v>37.88371238076034</v>
+        <v>22.92968867372794</v>
       </c>
       <c r="G2">
-        <v>3.695655277174606</v>
+        <v>2.11335319293351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.47010556688408</v>
+        <v>17.40775828564686</v>
       </c>
       <c r="J2">
-        <v>10.33558898771845</v>
+        <v>5.791200423761985</v>
       </c>
       <c r="K2">
-        <v>16.84455902426148</v>
+        <v>20.50274679993366</v>
       </c>
       <c r="L2">
-        <v>10.30065057450186</v>
+        <v>5.779139077800123</v>
       </c>
       <c r="M2">
-        <v>18.81103664535916</v>
+        <v>16.07631687046334</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.23913613188876</v>
+        <v>16.97431625305277</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.422657315158791</v>
+        <v>6.651144326464093</v>
       </c>
       <c r="D3">
-        <v>8.041219994027994</v>
+        <v>5.426452046274055</v>
       </c>
       <c r="E3">
-        <v>13.18111054357068</v>
+        <v>7.705425341443664</v>
       </c>
       <c r="F3">
-        <v>38.05170069082426</v>
+        <v>22.99732383997882</v>
       </c>
       <c r="G3">
-        <v>3.69780740067419</v>
+        <v>2.11905487491005</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.60235104795779</v>
+        <v>17.52604934684852</v>
       </c>
       <c r="J3">
-        <v>10.36104859610437</v>
+        <v>5.853608997356878</v>
       </c>
       <c r="K3">
-        <v>16.37389424061714</v>
+        <v>19.15506698205566</v>
       </c>
       <c r="L3">
-        <v>10.32311689373139</v>
+        <v>5.828063821503973</v>
       </c>
       <c r="M3">
-        <v>18.62133038279577</v>
+        <v>15.24034265910652</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.38924300627838</v>
+        <v>17.18376338877259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.404468092232813</v>
+        <v>6.497282309723301</v>
       </c>
       <c r="D4">
-        <v>8.025599766373826</v>
+        <v>5.307991627211496</v>
       </c>
       <c r="E4">
-        <v>13.19612939360933</v>
+        <v>7.692505334321667</v>
       </c>
       <c r="F4">
-        <v>38.16391510312033</v>
+        <v>23.06428169577908</v>
       </c>
       <c r="G4">
-        <v>3.699198436834952</v>
+        <v>2.122660728541071</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.69001307400459</v>
+        <v>17.61624143823999</v>
       </c>
       <c r="J4">
-        <v>10.3775509716988</v>
+        <v>5.893396992911516</v>
       </c>
       <c r="K4">
-        <v>16.07847783679615</v>
+        <v>18.27881548380701</v>
       </c>
       <c r="L4">
-        <v>10.3377329332411</v>
+        <v>5.859555175545062</v>
       </c>
       <c r="M4">
-        <v>18.50534300632922</v>
+        <v>14.70604787601845</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.48799108588045</v>
+        <v>17.33026276179285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.397368446766412</v>
+        <v>6.434108959404858</v>
       </c>
       <c r="D5">
-        <v>8.019414562140458</v>
+        <v>5.2592756044767</v>
       </c>
       <c r="E5">
-        <v>13.20263586212579</v>
+        <v>7.688021083141416</v>
       </c>
       <c r="F5">
-        <v>38.21191876232358</v>
+        <v>23.09767662035554</v>
       </c>
       <c r="G5">
-        <v>3.69978285817632</v>
+        <v>2.124157224273709</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.72735883232113</v>
+        <v>17.65720973656939</v>
       </c>
       <c r="J5">
-        <v>10.38449518328983</v>
+        <v>5.909982944888407</v>
       </c>
       <c r="K5">
-        <v>15.95663541290967</v>
+        <v>17.90942418940617</v>
       </c>
       <c r="L5">
-        <v>10.34389620369597</v>
+        <v>5.872753196535646</v>
       </c>
       <c r="M5">
-        <v>18.45824036454642</v>
+        <v>14.48323513487851</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.52988488610177</v>
+        <v>17.39423726368253</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.396208574761067</v>
+        <v>6.423593213145367</v>
       </c>
       <c r="D6">
-        <v>8.018398497597602</v>
+        <v>5.251161575619784</v>
       </c>
       <c r="E6">
-        <v>13.2037395922265</v>
+        <v>7.687323296311104</v>
       </c>
       <c r="F6">
-        <v>38.22002701133964</v>
+        <v>23.10358247944377</v>
       </c>
       <c r="G6">
-        <v>3.699880963274019</v>
+        <v>2.124407371138947</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.73365801022145</v>
+        <v>17.6642612515334</v>
       </c>
       <c r="J6">
-        <v>10.38566152997483</v>
+        <v>5.9127595768724</v>
       </c>
       <c r="K6">
-        <v>15.93632035418446</v>
+        <v>17.84734219432043</v>
       </c>
       <c r="L6">
-        <v>10.34493213437554</v>
+        <v>5.874966769925186</v>
       </c>
       <c r="M6">
-        <v>18.45042999974259</v>
+        <v>14.44593681363317</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.53694111185797</v>
+        <v>17.40511202589689</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.404371071902997</v>
+        <v>6.496432126172895</v>
       </c>
       <c r="D7">
-        <v>8.025515616406407</v>
+        <v>5.307336329917914</v>
       </c>
       <c r="E7">
-        <v>13.19621557797813</v>
+        <v>7.692441711979884</v>
       </c>
       <c r="F7">
-        <v>38.16455329111349</v>
+        <v>23.06470771207036</v>
       </c>
       <c r="G7">
-        <v>3.699206247361001</v>
+        <v>2.122680800279586</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.6905101645315</v>
+        <v>17.61677714925855</v>
       </c>
       <c r="J7">
-        <v>10.37764373482631</v>
+        <v>5.893619167016382</v>
       </c>
       <c r="K7">
-        <v>16.07684031312841</v>
+        <v>18.27388365161086</v>
       </c>
       <c r="L7">
-        <v>10.33781521397947</v>
+        <v>5.859731690436764</v>
       </c>
       <c r="M7">
-        <v>18.50470705150168</v>
+        <v>14.70306323627213</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.4885493892521</v>
+        <v>17.33110852420316</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.443121755010536</v>
+        <v>6.813461462032507</v>
       </c>
       <c r="D8">
-        <v>8.05849398288356</v>
+        <v>5.551168925147594</v>
       </c>
       <c r="E8">
-        <v>13.16640278800813</v>
+        <v>7.721912511016147</v>
       </c>
       <c r="F8">
-        <v>37.93974946217467</v>
+        <v>22.94755941214619</v>
       </c>
       <c r="G8">
-        <v>3.696382912378625</v>
+        <v>2.115297759527533</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.51436105366991</v>
+        <v>17.44477717712792</v>
       </c>
       <c r="J8">
-        <v>10.34418722222809</v>
+        <v>5.812415635223179</v>
       </c>
       <c r="K8">
-        <v>16.68369906026793</v>
+        <v>20.04815801541684</v>
       </c>
       <c r="L8">
-        <v>10.30822673978236</v>
+        <v>5.795707115949066</v>
       </c>
       <c r="M8">
-        <v>18.74554717403504</v>
+        <v>15.7925390434894</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.28952576433245</v>
+        <v>17.04267889340957</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.52859420960603</v>
+        <v>7.41402989098915</v>
       </c>
       <c r="D9">
-        <v>8.12857255527507</v>
+        <v>6.010920272872091</v>
       </c>
       <c r="E9">
-        <v>13.12009155820867</v>
+        <v>7.80516848576629</v>
       </c>
       <c r="F9">
-        <v>37.5710925070282</v>
+        <v>22.93235218524129</v>
       </c>
       <c r="G9">
-        <v>3.691396261688709</v>
+        <v>2.101620254322909</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.2203169326485</v>
+        <v>17.25613258225597</v>
       </c>
       <c r="J9">
-        <v>10.28545660038914</v>
+        <v>5.664710000747723</v>
       </c>
       <c r="K9">
-        <v>17.81637344599734</v>
+        <v>23.14305586266527</v>
       </c>
       <c r="L9">
-        <v>10.25669992510703</v>
+        <v>5.681672264835247</v>
       </c>
       <c r="M9">
-        <v>19.22001890188118</v>
+        <v>17.75553648209691</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.9515509856327</v>
+        <v>16.62989720932181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.596851976491399</v>
+        <v>7.838442647790638</v>
       </c>
       <c r="D10">
-        <v>8.183130545843053</v>
+        <v>6.334627926501478</v>
       </c>
       <c r="E10">
-        <v>13.09344770896012</v>
+        <v>7.882488172806306</v>
       </c>
       <c r="F10">
-        <v>37.34454938378286</v>
+        <v>23.0692073274094</v>
       </c>
       <c r="G10">
-        <v>3.688064253536246</v>
+        <v>2.092011332357854</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.03575052801522</v>
+        <v>17.22126522433871</v>
       </c>
       <c r="J10">
-        <v>10.24646331118232</v>
+        <v>5.563055871158133</v>
       </c>
       <c r="K10">
-        <v>18.60582251027675</v>
+        <v>25.18642970441447</v>
       </c>
       <c r="L10">
-        <v>10.22277113804436</v>
+        <v>5.604922955591375</v>
       </c>
       <c r="M10">
-        <v>19.56763627584622</v>
+        <v>19.08516740765339</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.73524942512333</v>
+        <v>16.43566793615162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.629016828984598</v>
+        <v>8.027207188430152</v>
       </c>
       <c r="D11">
-        <v>8.208566655188486</v>
+        <v>6.47835447736564</v>
       </c>
       <c r="E11">
-        <v>13.08292333748741</v>
+        <v>7.921297100992689</v>
       </c>
       <c r="F11">
-        <v>37.25117481068214</v>
+        <v>23.16720455869703</v>
       </c>
       <c r="G11">
-        <v>3.686619702976558</v>
+        <v>2.087724105548946</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.95865051907206</v>
+        <v>17.23082436465753</v>
       </c>
       <c r="J11">
-        <v>10.22961894794655</v>
+        <v>5.51826716714356</v>
       </c>
       <c r="K11">
-        <v>18.95427205052321</v>
+        <v>26.06692029815512</v>
       </c>
       <c r="L11">
-        <v>10.2081821544448</v>
+        <v>5.571541186341128</v>
       </c>
       <c r="M11">
-        <v>19.72507865388893</v>
+        <v>19.66470729243621</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.64382569919702</v>
+        <v>16.37469554764087</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.641350450524071</v>
+        <v>8.098024784709191</v>
       </c>
       <c r="D12">
-        <v>8.218282933249274</v>
+        <v>6.532239987440502</v>
       </c>
       <c r="E12">
-        <v>13.07916699449442</v>
+        <v>7.936525667333632</v>
       </c>
       <c r="F12">
-        <v>37.21721374394859</v>
+        <v>23.20973770947531</v>
       </c>
       <c r="G12">
-        <v>3.686082870034479</v>
+        <v>2.086111704127867</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.93044395071665</v>
+        <v>17.23834138225638</v>
       </c>
       <c r="J12">
-        <v>10.22336838274056</v>
+        <v>5.501513462481947</v>
       </c>
       <c r="K12">
-        <v>19.08458253729797</v>
+        <v>26.39336760772325</v>
       </c>
       <c r="L12">
-        <v>10.20277873774287</v>
+        <v>5.55912165895426</v>
       </c>
       <c r="M12">
-        <v>19.78455855707361</v>
+        <v>19.88047700515045</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.6102111587948</v>
+        <v>16.3558690642788</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.638687466933343</v>
+        <v>8.082803082211443</v>
       </c>
       <c r="D13">
-        <v>8.216186689633211</v>
+        <v>6.520659290218492</v>
       </c>
       <c r="E13">
-        <v>13.0799658132416</v>
+        <v>7.933222089128976</v>
       </c>
       <c r="F13">
-        <v>37.22446560671094</v>
+        <v>23.20033179113717</v>
       </c>
       <c r="G13">
-        <v>3.6861980343514</v>
+        <v>2.086458487419306</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.9364746815981</v>
+        <v>17.23654526989197</v>
       </c>
       <c r="J13">
-        <v>10.22470886769629</v>
+        <v>5.505112510147119</v>
       </c>
       <c r="K13">
-        <v>19.05659233059705</v>
+        <v>26.3233702794893</v>
       </c>
       <c r="L13">
-        <v>10.20393708073787</v>
+        <v>5.561786557152535</v>
       </c>
       <c r="M13">
-        <v>19.77175536888937</v>
+        <v>19.8341718104445</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.6174058777288</v>
+        <v>16.35972881226813</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.630028486437435</v>
+        <v>8.033046918773138</v>
       </c>
       <c r="D14">
-        <v>8.2093643589794</v>
+        <v>6.482798675094108</v>
       </c>
       <c r="E14">
-        <v>13.08260971419259</v>
+        <v>7.922539238058603</v>
       </c>
       <c r="F14">
-        <v>37.24835276555687</v>
+        <v>23.17059349360645</v>
       </c>
       <c r="G14">
-        <v>3.686575333535543</v>
+        <v>2.087591236204541</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.95631009854818</v>
+        <v>17.23136330046155</v>
       </c>
       <c r="J14">
-        <v>10.22910214717977</v>
+        <v>5.516884697840427</v>
       </c>
       <c r="K14">
-        <v>18.96502619977446</v>
+        <v>26.09391664863256</v>
       </c>
       <c r="L14">
-        <v>10.20773518734996</v>
+        <v>5.570514979086852</v>
       </c>
       <c r="M14">
-        <v>19.72997514041783</v>
+        <v>19.68253295365097</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.64104003907791</v>
+        <v>16.37305935276821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.624744397171362</v>
+        <v>8.002482241998198</v>
       </c>
       <c r="D15">
-        <v>8.205196308122138</v>
+        <v>6.459536664687676</v>
       </c>
       <c r="E15">
-        <v>13.08425898814001</v>
+        <v>7.916065310350895</v>
       </c>
       <c r="F15">
-        <v>37.26316655131895</v>
+        <v>23.15309252757527</v>
       </c>
       <c r="G15">
-        <v>3.686807765321206</v>
+        <v>2.088286489714019</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.96858882097379</v>
+        <v>17.22870391629925</v>
       </c>
       <c r="J15">
-        <v>10.23180981592488</v>
+        <v>5.524122368621166</v>
       </c>
       <c r="K15">
-        <v>18.9087228195656</v>
+        <v>25.95246366785603</v>
       </c>
       <c r="L15">
-        <v>10.21007739671464</v>
+        <v>5.575890264433061</v>
       </c>
       <c r="M15">
-        <v>19.70436409922041</v>
+        <v>19.58916816193573</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.65564769799041</v>
+        <v>16.38178963503345</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.5947717765194</v>
+        <v>7.82601585337201</v>
       </c>
       <c r="D16">
-        <v>8.181480268654155</v>
+        <v>6.325161079618607</v>
       </c>
       <c r="E16">
-        <v>13.09416757566902</v>
+        <v>7.880025907410626</v>
       </c>
       <c r="F16">
-        <v>37.35084693102036</v>
+        <v>23.06354668921477</v>
       </c>
       <c r="G16">
-        <v>3.688160086604072</v>
+        <v>2.092293118405157</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.0409274994415</v>
+        <v>17.22117267211787</v>
       </c>
       <c r="J16">
-        <v>10.24758207342579</v>
+        <v>5.566011980715286</v>
       </c>
       <c r="K16">
-        <v>18.5828265142724</v>
+        <v>25.12790712015594</v>
       </c>
       <c r="L16">
-        <v>10.22374153517012</v>
+        <v>5.607135449059187</v>
       </c>
       <c r="M16">
-        <v>19.55732964599438</v>
+        <v>19.04677906327334</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.74136474354432</v>
+        <v>16.44023112495668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.576665172996938</v>
+        <v>7.716623018322527</v>
       </c>
       <c r="D17">
-        <v>8.167086134972681</v>
+        <v>6.241796681796819</v>
       </c>
       <c r="E17">
-        <v>13.10065461078294</v>
+        <v>7.858855030373128</v>
       </c>
       <c r="F17">
-        <v>37.40711965454124</v>
+        <v>23.01797250963856</v>
       </c>
       <c r="G17">
-        <v>3.689007890681036</v>
+        <v>2.09477186693401</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.08706415605685</v>
+        <v>17.22323482904207</v>
       </c>
       <c r="J17">
-        <v>10.25748642254398</v>
+        <v>5.592080683098314</v>
       </c>
       <c r="K17">
-        <v>18.38008773310591</v>
+        <v>24.60955948205989</v>
       </c>
       <c r="L17">
-        <v>10.23234024387354</v>
+        <v>5.626696430949054</v>
       </c>
       <c r="M17">
-        <v>19.46692265296042</v>
+        <v>18.70751587065772</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.79573737891632</v>
+        <v>16.48332368641061</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.566356008714484</v>
+        <v>7.653300290603175</v>
       </c>
       <c r="D18">
-        <v>8.158865405778958</v>
+        <v>6.193517068197902</v>
       </c>
       <c r="E18">
-        <v>13.10453604115111</v>
+        <v>7.847019759660625</v>
       </c>
       <c r="F18">
-        <v>37.44039712252535</v>
+        <v>22.99510711060402</v>
       </c>
       <c r="G18">
-        <v>3.689502229552263</v>
+        <v>2.096205539664541</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.11424626981393</v>
+        <v>17.22679903144433</v>
       </c>
       <c r="J18">
-        <v>10.26326730847327</v>
+        <v>5.607211725016667</v>
       </c>
       <c r="K18">
-        <v>18.26247856686475</v>
+        <v>24.30679782165679</v>
       </c>
       <c r="L18">
-        <v>10.23736559266427</v>
+        <v>5.638091492880015</v>
       </c>
       <c r="M18">
-        <v>19.4148603487919</v>
+        <v>18.50999943414293</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.82766722583505</v>
+        <v>16.5106665821413</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.562883784932946</v>
+        <v>7.63179260333308</v>
       </c>
       <c r="D19">
-        <v>8.15609217628953</v>
+        <v>6.177114735338525</v>
       </c>
       <c r="E19">
-        <v>13.1058760488355</v>
+        <v>7.843070924135509</v>
       </c>
       <c r="F19">
-        <v>37.45182057087939</v>
+        <v>22.98793143197039</v>
       </c>
       <c r="G19">
-        <v>3.689670757245889</v>
+        <v>2.096692353145432</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.12356044406799</v>
+        <v>17.22840690778858</v>
       </c>
       <c r="J19">
-        <v>10.26523908836572</v>
+        <v>5.612358440889391</v>
       </c>
       <c r="K19">
-        <v>18.22248987778324</v>
+        <v>24.20349182209765</v>
       </c>
       <c r="L19">
-        <v>10.23908077445575</v>
+        <v>5.641974384657331</v>
       </c>
       <c r="M19">
-        <v>19.39722345202072</v>
+        <v>18.44271659457324</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.83859072866342</v>
+        <v>16.52035392898513</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.578581804220738</v>
+        <v>7.728310115998303</v>
       </c>
       <c r="D20">
-        <v>8.168612404378687</v>
+        <v>6.250705438918996</v>
       </c>
       <c r="E20">
-        <v>13.09994850709839</v>
+        <v>7.861073275818729</v>
       </c>
       <c r="F20">
-        <v>37.40103501195801</v>
+        <v>23.02247539969131</v>
       </c>
       <c r="G20">
-        <v>3.688916946980964</v>
+        <v>2.094507182817189</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.08208599828406</v>
+        <v>17.22276743707261</v>
       </c>
       <c r="J20">
-        <v>10.25642338048131</v>
+        <v>5.589291462048424</v>
       </c>
       <c r="K20">
-        <v>18.40177382602572</v>
+        <v>24.66521626168124</v>
       </c>
       <c r="L20">
-        <v>10.23141666174281</v>
+        <v>5.624599209619279</v>
       </c>
       <c r="M20">
-        <v>19.47655340778675</v>
+        <v>18.7438778794855</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.78988138941521</v>
+        <v>16.47846943708794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.632567727712171</v>
+        <v>8.047679832438794</v>
       </c>
       <c r="D21">
-        <v>8.211365995590695</v>
+        <v>6.493934163627333</v>
       </c>
       <c r="E21">
-        <v>13.08182692530965</v>
+        <v>7.925662523103205</v>
       </c>
       <c r="F21">
-        <v>37.24129854518725</v>
+        <v>23.17917893717549</v>
       </c>
       <c r="G21">
-        <v>3.686464235551158</v>
+        <v>2.087258227998924</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.95045707584168</v>
+        <v>17.23277767031023</v>
       </c>
       <c r="J21">
-        <v>10.22780826384648</v>
+        <v>5.51342132605447</v>
       </c>
       <c r="K21">
-        <v>18.99196667895927</v>
+        <v>26.16150140734313</v>
       </c>
       <c r="L21">
-        <v>10.20661630792594</v>
+        <v>5.56794521003196</v>
       </c>
       <c r="M21">
-        <v>19.7422511303407</v>
+        <v>19.72717339119221</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.63407079637529</v>
+        <v>16.36902552046701</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.668742054904733</v>
+        <v>8.252524165669929</v>
       </c>
       <c r="D22">
-        <v>8.239796371320201</v>
+        <v>6.649735601262597</v>
       </c>
       <c r="E22">
-        <v>13.07131800702586</v>
+        <v>7.970983379775679</v>
       </c>
       <c r="F22">
-        <v>37.14505191763124</v>
+        <v>23.31333209146809</v>
       </c>
       <c r="G22">
-        <v>3.684920601111618</v>
+        <v>2.082584679112526</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.87019913279062</v>
+        <v>17.26214829481513</v>
       </c>
       <c r="J22">
-        <v>10.20985265279882</v>
+        <v>5.465040262887277</v>
       </c>
       <c r="K22">
-        <v>19.36809247900683</v>
+        <v>27.09879187409619</v>
       </c>
       <c r="L22">
-        <v>10.19111358639091</v>
+        <v>5.532209923424168</v>
       </c>
       <c r="M22">
-        <v>19.91506491906557</v>
+        <v>20.34829878642857</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.53810262832805</v>
+        <v>16.32250118053416</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.649355840184565</v>
+        <v>8.143562845858424</v>
       </c>
       <c r="D23">
-        <v>8.224579400929938</v>
+        <v>6.566880319037184</v>
       </c>
       <c r="E23">
-        <v>13.07680487260507</v>
+        <v>7.946507236686212</v>
       </c>
       <c r="F23">
-        <v>37.19567291868777</v>
+        <v>23.23873664244851</v>
       </c>
       <c r="G23">
-        <v>3.685739053691998</v>
+        <v>2.08507352394133</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.9125054197213</v>
+        <v>17.24430376363037</v>
       </c>
       <c r="J23">
-        <v>10.21936780615858</v>
+        <v>5.490752664966567</v>
       </c>
       <c r="K23">
-        <v>19.16825735648757</v>
+        <v>26.60223194490004</v>
       </c>
       <c r="L23">
-        <v>10.19932325304404</v>
+        <v>5.55116390155059</v>
       </c>
       <c r="M23">
-        <v>19.82292063646762</v>
+        <v>20.01877258868769</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.58878518361823</v>
+        <v>16.34493393323292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.577714981511454</v>
+        <v>7.723027719155221</v>
       </c>
       <c r="D24">
-        <v>8.16792220741954</v>
+        <v>6.246678884623445</v>
       </c>
       <c r="E24">
-        <v>13.10026726323948</v>
+        <v>7.860069360755197</v>
       </c>
       <c r="F24">
-        <v>37.4037829962989</v>
+        <v>23.02042927447119</v>
       </c>
       <c r="G24">
-        <v>3.68895804105244</v>
+        <v>2.094626819623448</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.08433457542958</v>
+        <v>17.22297135435412</v>
       </c>
       <c r="J24">
-        <v>10.25690371155507</v>
+        <v>5.590552020810145</v>
       </c>
       <c r="K24">
-        <v>18.39197281191773</v>
+        <v>24.64006865352047</v>
       </c>
       <c r="L24">
-        <v>10.23183395827324</v>
+        <v>5.625546898762644</v>
       </c>
       <c r="M24">
-        <v>19.4721996086516</v>
+        <v>18.72744630333428</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.79252679451959</v>
+        <v>16.48065606764665</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.504488441658113</v>
+        <v>7.254262907046089</v>
       </c>
       <c r="D25">
-        <v>8.109058232292774</v>
+        <v>5.888833457089753</v>
       </c>
       <c r="E25">
-        <v>13.13132175389831</v>
+        <v>7.779852875437912</v>
       </c>
       <c r="F25">
-        <v>37.66306467809102</v>
+        <v>22.91170607903366</v>
       </c>
       <c r="G25">
-        <v>3.692686780561647</v>
+        <v>2.105239464050436</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.2943479837462</v>
+        <v>17.28991722545317</v>
       </c>
       <c r="J25">
-        <v>10.30061230991965</v>
+        <v>5.703450881351242</v>
       </c>
       <c r="K25">
-        <v>17.5169415381147</v>
+        <v>22.34657669375071</v>
       </c>
       <c r="L25">
-        <v>10.26994719113318</v>
+        <v>5.71128830497386</v>
       </c>
       <c r="M25">
-        <v>19.09166684294394</v>
+        <v>17.24388019757088</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.03736998718004</v>
+        <v>16.72362261813141</v>
       </c>
     </row>
   </sheetData>
